--- a/ProsolOnline/Common/AssetBulkUpload.xlsx
+++ b/ProsolOnline/Common/AssetBulkUpload.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coda\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_INHOUSE\CCP_Main\CC_Dev_Final - Current\ProsolOnline\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE4D17C-88BA-42CC-B6DF-09A40BE45C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12A5E12-7F97-4EDE-A00E-5FDBA547660C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,10 +126,10 @@
     <t>UNIQUE ID</t>
   </si>
   <si>
-    <t>ASSET NO.</t>
-  </si>
-  <si>
     <t>PV USER</t>
+  </si>
+  <si>
+    <t>EQUIPMENT NO.</t>
   </si>
 </sst>
 </file>
@@ -538,7 +538,7 @@
   <dimension ref="A1:AF1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -582,7 +582,7 @@
         <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>28</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
